--- a/CreaciondeTren.xlsx
+++ b/CreaciondeTren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Programacion\JavaProyect\Aprendizaje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AACB35D-595C-482A-9D18-9191606A27A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4A9E97-CA3C-40CD-8794-55954F91BDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="0" windowWidth="22125" windowHeight="12900" xr2:uid="{E14BB3CF-934E-4D55-BABC-5313FB4E8914}"/>
+    <workbookView xWindow="495" yWindow="2520" windowWidth="22125" windowHeight="12900" xr2:uid="{E14BB3CF-934E-4D55-BABC-5313FB4E8914}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>por filña</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>fila</t>
   </si>
@@ -51,6 +48,12 @@
   </si>
   <si>
     <t>pos</t>
+  </si>
+  <si>
+    <t>sillas por fila</t>
+  </si>
+  <si>
+    <t>idsillas</t>
   </si>
 </sst>
 </file>
@@ -402,37 +405,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2F138B-EAD9-4452-92BE-D7D37879A084}">
-  <dimension ref="F2:I19"/>
+  <dimension ref="F2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>0</v>
       </c>
@@ -448,8 +454,28 @@
         <f>CHAR(H5+65)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="6" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f>+O5&amp;"-"&amp;I5</f>
+        <v>1-A</v>
+      </c>
+      <c r="L5">
+        <f>+F5/$G$2</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>+MOD(F5,$G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" t="str">
+        <f>+CHAR(H5+65)</f>
+        <v>A</v>
+      </c>
+      <c r="O5">
+        <f>+G5+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>1</v>
       </c>
@@ -465,8 +491,28 @@
         <f t="shared" ref="I6:I19" si="2">CHAR(H6+65)</f>
         <v>B</v>
       </c>
-    </row>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" ref="J6:J24" si="3">+O6&amp;"-"&amp;I6</f>
+        <v>1-B</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L24" si="4">+F6/$G$2</f>
+        <v>0.25</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M24" si="5">+MOD(F6,$G$2)</f>
+        <v>1</v>
+      </c>
+      <c r="N6" t="str">
+        <f>+CHAR(H6+65)</f>
+        <v>B</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O24" si="6">+G6+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>2</v>
       </c>
@@ -482,8 +528,28 @@
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>1-C</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N7" t="str">
+        <f>+CHAR(H7+65)</f>
+        <v>C</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>3</v>
       </c>
@@ -499,8 +565,28 @@
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>1-D</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="N8" t="str">
+        <f>+CHAR(H8+65)</f>
+        <v>D</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>4</v>
       </c>
@@ -516,8 +602,24 @@
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v>2-A</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>5</v>
       </c>
@@ -533,8 +635,24 @@
         <f t="shared" si="2"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="11" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v>2-B</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>6</v>
       </c>
@@ -550,8 +668,24 @@
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v>2-C</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>7</v>
       </c>
@@ -567,8 +701,24 @@
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v>2-D</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>8</v>
       </c>
@@ -584,8 +734,24 @@
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>3-A</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>9</v>
       </c>
@@ -601,8 +767,24 @@
         <f t="shared" si="2"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v>3-B</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>10</v>
       </c>
@@ -618,8 +800,24 @@
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="3"/>
+        <v>3-C</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>11</v>
       </c>
@@ -635,8 +833,24 @@
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>3-D</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>12</v>
       </c>
@@ -652,8 +866,24 @@
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f t="shared" si="3"/>
+        <v>4-A</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>13</v>
       </c>
@@ -669,8 +899,24 @@
         <f t="shared" si="2"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>4-B</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>14</v>
       </c>
@@ -685,6 +931,187 @@
       <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v>C</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>4-C</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G24" si="7">+INT(F20/$G$2)</f>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H24" si="8">MOD(F20,$G$2)</f>
+        <v>3</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" ref="I20:I24" si="9">CHAR(H20+65)</f>
+        <v>D</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>4-D</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>5-A</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>5-B</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>4.25</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>5-C</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="9"/>
+        <v>D</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>5-D</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>4.75</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
